--- a/ig/ch-ips/StructureDefinition-ch-ips-medication.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T10:26:13+00:00</t>
+    <t>2024-12-18T08:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-ips/StructureDefinition-ch-ips-medication.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="334">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:08:56+00:00</t>
+    <t>2025-05-22T08:10:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -900,24 +900,13 @@
 </t>
   </si>
   <si>
-    <t>A ratio of two Quantity values - a numerator and a denominator</t>
-  </si>
-  <si>
-    <t>A relationship of two Quantity values - expressed as a numerator and a denominator.</t>
-  </si>
-  <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
-  </si>
-  <si>
-    <t>RTO</t>
+    <t>Amount of drug in package</t>
+  </si>
+  <si>
+    <t>Specific amount of the drug in the packaged product.  For example, when specifying a product that has the same strength (For example, Insulin glargine 100 unit per mL solution for injection), this attribute provides additional clarification of the package amount (For example, 3 mL, 10mL, etc.).</t>
+  </si>
+  <si>
+    <t>.quantity</t>
   </si>
   <si>
     <t>Medication.ingredient</t>
@@ -1004,6 +993,18 @@
   </si>
   <si>
     <t>Medication.ingredient.strength</t>
+  </si>
+  <si>
+    <t>Quantity of ingredient present</t>
+  </si>
+  <si>
+    <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet.</t>
+  </si>
+  <si>
+    <t>//element(*,DrugCodedType)/Strength</t>
+  </si>
+  <si>
+    <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
   </si>
   <si>
     <t>Medication.batch</t>
@@ -1379,17 +1380,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.38671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="34.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.79296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.27734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1398,26 +1399,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.38671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.4921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="98.9296875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="173.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="167.640625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="84.81640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5449,7 +5450,7 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>282</v>
@@ -5460,9 +5461,7 @@
       <c r="M36" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>285</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5520,30 +5519,30 @@
         <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>287</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5566,16 +5565,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5625,7 +5624,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -5643,7 +5642,7 @@
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
@@ -5654,10 +5653,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5766,10 +5765,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5880,14 +5879,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5909,10 +5908,10 @@
         <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>137</v>
@@ -5967,7 +5966,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -5996,10 +5995,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6022,17 +6021,17 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6061,7 +6060,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6079,7 +6078,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -6097,21 +6096,21 @@
         <v>160</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6137,14 +6136,14 @@
         <v>229</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6193,7 +6192,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6211,7 +6210,7 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
@@ -6222,10 +6221,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6251,14 +6250,12 @@
         <v>282</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6307,7 +6304,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6316,30 +6313,30 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>287</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>131</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6362,13 +6359,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6419,7 +6416,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6437,7 +6434,7 @@
         <v>269</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -6448,10 +6445,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6560,10 +6557,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6674,14 +6671,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6703,10 +6700,10 @@
         <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>137</v>
@@ -6761,7 +6758,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -6790,10 +6787,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6819,10 +6816,10 @@
         <v>165</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6873,7 +6870,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -6897,15 +6894,15 @@
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6928,13 +6925,13 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6985,7 +6982,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7003,13 +7000,13 @@
         <v>269</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-ips/StructureDefinition-ch-ips-medication.xlsx
+++ b/ig/ch-ips/StructureDefinition-ch-ips-medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T08:10:43+00:00</t>
+    <t>2025-12-16T12:02:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -370,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -515,7 +515,7 @@
     <t>A coded concept that defines the type of a medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -845,7 +845,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
